--- a/temp.xlsx
+++ b/temp.xlsx
@@ -423,6 +423,37 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,13 +27,28 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6D785"/>
+        <bgColor rgb="00A6D785"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -48,8 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +441,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
@@ -453,297 +470,835 @@
     <col width="15" customWidth="1" min="27" max="27"/>
     <col width="15" customWidth="1" min="28" max="28"/>
     <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Adı</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Soyadı</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>TC Kimlik No</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Baba Adı</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anne Adı</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Doğum Yeri</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Telefon Numarası</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>İkamet Adresi</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Mezuniyet Durumu</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Kurum Adı</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Mesleki Alan</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Mesleki Dal</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Doğum Tarihi</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Okul Adı</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Usta Öğretici Adı</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Usta Öğretici TC</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Usta Öğretici Telefon</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Şirket Adı</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Şirket Adresi</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Şirket Telefonu</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Vergi Numarası</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>SGK Sicil Numarası</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>SGK'lı Personel Sayısı</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Banka Adı</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Şube Adı</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>IBAN Numarası</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>İşletme Temsilcisinin Adı</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>İşletme Temsilcisinin TC Numarası</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>İşletme Temsilcisinin Ünvanı</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Kaan</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Kanat</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>23123213232</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Kemal</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Ayşegül</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>istanbul</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>0537 879 42 60</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Lisans</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>BİLİŞİM TEKNOLOJİLERİ</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Yazılım Geliştirme</t>
         </is>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="3" t="n">
         <v>45182</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Osman Düşüngel Mesleki Eğitim Merkezi</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Ahmet</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12213123213</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>0537 879 42 60</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>05378794260</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>23232</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>32432</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>32432</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Yapıkredi</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>istanbul</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>232423423432</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Kaan Kanat</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>32423423432</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Yönetici</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Deneme</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21414231231</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mahmut</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fatma</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>istanbul</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0537 879 42 60</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Dr. Sadik Ahmet Caddesi</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Ortaokul/İlköğretim</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BEDAŞ</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>GEMİ YAPIMI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Gemi Donatımı</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>45190</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Mehmet Akif Ersoy Mesleki ve Teknik Anadolu Lisesi</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Murat</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>42343223543</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0423 423 42 34</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
